--- a/SPWL-MOTALITY.xlsx
+++ b/SPWL-MOTALITY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangfor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E7229D-8676-4C04-8CB1-23DE6ABCB3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558C0B5-EF8E-487A-BD56-3383E19E21F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{71693779-FB8F-4AB2-8652-343A482CB5FF}"/>
   </bookViews>
@@ -61,15 +61,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Px</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tPx = Px*Px+1*…*Px+t-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>qx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>px</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099D2910-602D-4796-9C39-54872A6746AF}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -522,10 +522,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -683,16 +683,16 @@
         <v>6.6755674232309701E-4</v>
       </c>
       <c r="C12">
-        <f>EXP(-B12)</f>
-        <v>0.99933266602410653</v>
+        <f>B12</f>
+        <v>6.6755674232309701E-4</v>
       </c>
       <c r="D12">
-        <f>C12</f>
-        <v>0.99933266602410653</v>
+        <f>E12</f>
+        <v>0.99933244325767689</v>
       </c>
       <c r="E12">
         <f xml:space="preserve"> 1-C12</f>
-        <v>6.6733397589346932E-4</v>
+        <v>0.99933244325767689</v>
       </c>
       <c r="F12" s="3">
         <v>2010</v>
@@ -713,16 +713,16 @@
         <v>6.6713922361672797E-4</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C64" si="1">EXP(-B13)</f>
-        <v>0.99933308326427561</v>
+        <f t="shared" ref="C13:C64" si="1">B13</f>
+        <v>6.6713922361672797E-4</v>
       </c>
       <c r="D13">
-        <f>C13*D12</f>
-        <v>0.99866619434457904</v>
+        <f>E13*D12</f>
+        <v>0.99866574938734698</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E64" si="2" xml:space="preserve"> 1-C13</f>
-        <v>6.669167357243877E-4</v>
+        <v>0.99933286077638328</v>
       </c>
       <c r="F13" s="3">
         <v>2011</v>
@@ -744,15 +744,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.99902383251141857</v>
+        <v>9.7664425035577694E-4</v>
       </c>
       <c r="D14">
-        <f>C14*D13</f>
-        <v>0.99769132887371448</v>
+        <f t="shared" ref="D14:D64" si="3">E14*D13</f>
+        <v>0.99769040822518051</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>9.7616748858142532E-4</v>
+        <v>0.99902335574964418</v>
       </c>
       <c r="F14" s="3">
         <v>2012</v>
@@ -774,15 +774,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.99872721789073093</v>
+        <v>1.2735927843661201E-3</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D64" si="3">C15*D14</f>
-        <v>0.99642148519975116</v>
+        <f t="shared" si="3"/>
+        <v>0.99641975692023366</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>1.2727821092690661E-3</v>
+        <v>0.99872640721563388</v>
       </c>
       <c r="F15" s="3">
         <v>2013</v>
@@ -804,15 +804,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.99867697196572047</v>
+        <v>1.3239040085802299E-3</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>0.99510319164087346</v>
+        <v>0.99510059280981844</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>1.3230280342795275E-3</v>
+        <v>0.99867609599141982</v>
       </c>
       <c r="F16" s="3">
         <v>2014</v>
@@ -834,15 +834,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.99881476124347601</v>
+        <v>1.18594170747701E-3</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>0.99392375677139999</v>
+        <v>0.99392046151367019</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.1852387565239875E-3</v>
+        <v>0.99881405829252301</v>
       </c>
       <c r="F17" s="3">
         <v>2015</v>
@@ -864,15 +864,15 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.99882894199923689</v>
+        <v>1.17174422497489E-3</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>0.99275981440388428</v>
+        <v>0.99275584095280711</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>1.1710580007631144E-3</v>
+        <v>0.9988282557750251</v>
       </c>
       <c r="F18" s="3">
         <v>2016</v>
@@ -894,15 +894,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.99880731943464518</v>
+        <v>1.19339237485082E-3</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>0.99157576906717948</v>
+        <v>0.99157109370212537</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>1.19268056535482E-3</v>
+        <v>0.99880660762514917</v>
       </c>
       <c r="F19" s="3">
         <v>2017</v>
@@ -924,15 +924,15 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.99883687943184241</v>
+        <v>1.1637975178526499E-3</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>0.9904224468952908</v>
+        <v>0.99041710572450037</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>1.163120568157594E-3</v>
+        <v>0.99883620248214733</v>
       </c>
       <c r="F20" s="3">
         <v>2018</v>
@@ -954,15 +954,15 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.99877759838401292</v>
+        <v>1.22314935826547E-3</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>0.98921175289569607</v>
+        <v>0.98920567767721823</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>1.2224016159870787E-3</v>
+        <v>0.99877685064173449</v>
       </c>
       <c r="F21" s="3">
         <v>2019</v>
@@ -984,15 +984,15 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.99890282381522844</v>
+        <v>1.0977785231829401E-3</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>0.98812641331872275</v>
+        <v>0.98811974892925358</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>1.0971761847715644E-3</v>
+        <v>0.99890222147681706</v>
       </c>
       <c r="F22" s="3">
         <v>2020</v>
@@ -1014,15 +1014,15 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.99845680659378166</v>
+        <v>1.5443853555929801E-3</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>0.98660154315317916</v>
+        <v>0.98659371125943507</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>1.543193406218335E-3</v>
+        <v>0.99845561464440702</v>
       </c>
       <c r="F23" s="3">
         <v>2021</v>
@@ -1044,15 +1044,15 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.99871613335022857</v>
+        <v>1.2846915126435499E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.98533487833531175</v>
+        <v>0.98532624269215263</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>1.2838666497714257E-3</v>
+        <v>0.99871530848735646</v>
       </c>
       <c r="F24" s="3">
         <v>2022</v>
@@ -1074,15 +1074,15 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.99859612938684816</v>
+        <v>1.40485696274727E-3</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.98395159565550327</v>
+        <v>0.98394200025952894</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>1.4038706131518364E-3</v>
+        <v>0.99859514303725272</v>
       </c>
       <c r="F25" s="3">
         <v>2023</v>
@@ -1104,15 +1104,15 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.99846982130148565</v>
+        <v>1.53135061758865E-3</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>0.982445973883462</v>
+        <v>0.98243524006976002</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>1.5301786985143506E-3</v>
+        <v>0.99846864938241131</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.99840034553005519</v>
+        <v>1.6009352832444201E-3</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>0.98087439978986002</v>
+        <v>0.98086242483042962</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>1.5996544699448112E-3</v>
+        <v>0.99839906471675555</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1144,15 +1144,15 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.99820556719073827</v>
+        <v>1.7960447324290201E-3</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>0.97911428658511224</v>
+        <v>0.97910075203907543</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>1.7944328092617257E-3</v>
+        <v>0.998203955267571</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1164,15 +1164,15 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.9982237141244763</v>
+        <v>1.77786534194589E-3</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>0.97737509970732761</v>
+        <v>0.97736004274575194</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>1.7762858755236977E-3</v>
+        <v>0.99822213465805409</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1184,15 +1184,15 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>0.99803459532402672</v>
+        <v>1.9673386181449102E-3</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>0.97545416211618297</v>
+        <v>0.9754372445898265</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>1.9654046759732813E-3</v>
+        <v>0.99803266138185509</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1204,15 +1204,15 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.99816804537667747</v>
+        <v>1.8336347043952099E-3</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>0.97366717435405503</v>
+        <v>0.97364864900618697</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>1.8319546233225292E-3</v>
+        <v>0.99816636529560476</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,15 +1224,15 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.99807563191443904</v>
+        <v>1.92622206069416E-3</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>0.9717934803177698</v>
+        <v>0.97177318549910618</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>1.9243680855609568E-3</v>
+        <v>0.99807377793930585</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1244,15 +1244,15 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>0.99810674399122956</v>
+        <v>1.8950504832185701E-3</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>0.96995362647187422</v>
+        <v>0.96993162625434726</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>1.8932560087704386E-3</v>
+        <v>0.99810494951678141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>0.99802205328251159</v>
+        <v>1.97990543735224E-3</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>0.96803510988027819</v>
+        <v>0.96801125335366633</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>1.9779467174884102E-3</v>
+        <v>0.99802009456264773</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1284,15 +1284,15 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>0.99804244731956782</v>
+        <v>1.9594711908128E-3</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>0.96614013015617961</v>
+        <v>0.96611446319033734</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>1.9575526804321841E-3</v>
+        <v>0.99804052880918726</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>0.99778284172947873</v>
+        <v>2.2196198050002699E-3</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>0.96399804457612137</v>
+        <v>0.96397005639394284</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>2.2171582705212689E-3</v>
+        <v>0.99778038019499971</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1324,15 +1324,15 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>0.9978284197434687</v>
+        <v>2.1739415560568698E-3</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>0.96190464545518506</v>
+        <v>0.96187444182955351</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>2.1715802565313025E-3</v>
+        <v>0.99782605844394312</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,15 +1344,15 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>0.99740833424657094</v>
+        <v>2.5950299329274801E-3</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>0.95941171012749449</v>
+        <v>0.95937834886128792</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>2.5916657534290621E-3</v>
+        <v>0.99740497006707252</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1364,15 +1364,15 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>0.99761430554397112</v>
+        <v>2.3885447592517902E-3</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>0.95712284692959415</v>
+        <v>0.95708683073397571</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>2.3856944560288751E-3</v>
+        <v>0.99761145524074823</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,15 +1384,15 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>0.99756085093169045</v>
+        <v>2.4421286384616E-3</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>0.954788281629248</v>
+        <v>0.95474950157514582</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>2.439149068309554E-3</v>
+        <v>0.9975578713615384</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1404,15 +1404,15 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>0.99738561494430777</v>
+        <v>2.6178085284543698E-3</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>0.95229209741440646</v>
+        <v>0.95225015018738479</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>2.6143850556922255E-3</v>
+        <v>0.99738219147154561</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1424,15 +1424,15 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>0.99725728438349226</v>
+        <v>2.7464837525116E-3</v>
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>0.94968023100735111</v>
+        <v>0.9496348106215684</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>2.7427156165077404E-3</v>
+        <v>0.99725351624748837</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1444,15 +1444,15 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>0.9974853394044938</v>
+        <v>2.51782766497885E-3</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>0.94729210755210569</v>
+        <v>0.94724379382375845</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>2.5146605955062018E-3</v>
+        <v>0.99748217233502112</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1464,15 +1464,15 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>0.99755959566566466</v>
+        <v>2.4433869745464202E-3</v>
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>0.94498033178695384</v>
+        <v>0.94492931067620956</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>2.4404043343353443E-3</v>
+        <v>0.99755661302545362</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>0.99783227100973426</v>
+        <v>2.1700819157047398E-3</v>
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>0.94293187052650829</v>
+        <v>0.94287873666749178</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>2.1677289902657382E-3</v>
+        <v>0.99782991808429522</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,15 +1504,15 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>0.99791693828870021</v>
+        <v>2.0852343019643099E-3</v>
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>0.94096768525065022</v>
+        <v>0.9409126135832</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>2.083061711299794E-3</v>
+        <v>0.99791476569803572</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,15 +1524,15 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>0.99804135083420265</v>
+        <v>1.9605698274193601E-3</v>
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>0.9391246596788918</v>
+        <v>0.93906788870277047</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>1.9586491657973548E-3</v>
+        <v>0.99803943017258068</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,15 +1544,15 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>0.99818897853152511</v>
+        <v>1.8126633504763499E-3</v>
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>0.93742388475863914</v>
+        <v>0.9373656747573097</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>1.8110214684748938E-3</v>
+        <v>0.99818733664952364</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1564,15 +1564,15 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>0.99828968026672182</v>
+        <v>1.7117839998873801E-3</v>
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>0.93582059019009012</v>
+        <v>0.93576110719321648</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>1.7103197332781761E-3</v>
+        <v>0.99828821600011264</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,15 +1584,15 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>0.99845005836289979</v>
+        <v>1.5511440392354801E-3</v>
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>0.93437012289249877</v>
+        <v>0.93430960692964526</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>1.549941637100205E-3</v>
+        <v>0.99844885596076449</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,15 +1604,15 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>0.99854636624168169</v>
+        <v>1.45469130885497E-3</v>
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>0.9330118909390982</v>
+        <v>0.93295047486466498</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>1.4536337583183068E-3</v>
+        <v>0.99854530869114499</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1624,15 +1624,15 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>0.99873916931918216</v>
+        <v>1.26162619656475E-3</v>
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>0.93183552092143429</v>
+        <v>0.93177344010547813</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>1.2608306808178371E-3</v>
+        <v>0.99873837380343522</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1644,15 +1644,15 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>0.9989073174028873</v>
+        <v>1.0932800099698E-3</v>
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>0.93081732046435195</v>
+        <v>0.93075475082959003</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>1.0926825971127041E-3</v>
+        <v>0.99890671999003022</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,15 +1664,15 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>0.99900809122362111</v>
+        <v>9.924010434388111E-4</v>
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>0.92989403459497788</v>
+        <v>0.92983106884368116</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>9.9190877637889141E-4</v>
+        <v>0.99900759895656122</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1684,15 +1684,15 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>0.99914321628252933</v>
+        <v>8.5715096642352301E-4</v>
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>0.92909731652716376</v>
+        <v>0.92903406324441118</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>8.5678371747066606E-4</v>
+        <v>0.99914284903357653</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1704,15 +1704,15 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>0.99927304947602158</v>
+        <v>7.2721488063449502E-4</v>
       </c>
       <c r="D56">
         <f t="shared" si="3"/>
-        <v>0.92842190874608743</v>
+        <v>0.92835845584900345</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>7.2695052397842019E-4</v>
+        <v>0.99927278511936546</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1724,15 +1724,15 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>0.99942024703648347</v>
+        <v>5.79921085248399E-4</v>
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
-        <v>0.9278836533930982</v>
+        <v>0.92782008120578796</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>5.7975296351653327E-4</v>
+        <v>0.9994200789147516</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1744,15 +1744,15 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>0.99959333351904767</v>
+        <v>4.0674919219041498E-4</v>
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>0.92750631421303964</v>
+        <v>0.92744269113725941</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>4.0666648095233349E-4</v>
+        <v>0.99959325080780959</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1764,15 +1764,15 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>0.99964436858015626</v>
+        <v>3.5569467169381801E-4</v>
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
-        <v>0.92717646382560204</v>
+        <v>0.92711280471372048</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>3.5563141984373825E-4</v>
+        <v>0.99964430532830617</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1784,15 +1784,15 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>0.99981783612132402</v>
+        <v>1.8218047253060001E-4</v>
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>0.92700756576473453</v>
+        <v>0.92694390286486861</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>1.8216387867597827E-4</v>
+        <v>0.9998178195274694</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1804,15 +1804,15 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>0.9998405757496317</v>
+        <v>1.59436959764944E-4</v>
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>0.92685977827847676</v>
+        <v>0.92679611374712323</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>1.5942425036830077E-4</v>
+        <v>0.99984056304023505</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1824,15 +1824,15 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>0.99991173007632539</v>
+        <v>8.8273819693604401E-5</v>
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>0.92677796443659111</v>
+        <v>0.92671430191408566</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>8.8269923674610951E-5</v>
+        <v>0.99991172618030644</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>0.99994304574282711</v>
+        <v>5.6955879128233298E-5</v>
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>0.92672518048606245</v>
+        <v>0.92666152008631941</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>5.6954257172892042E-5</v>
+        <v>0.99994304412087176</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1864,15 +1864,15 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>0.99999430410389312</v>
+        <v>5.6959123285174302E-6</v>
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>0.92671990195571474</v>
+        <v>0.92665624190354279</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>5.6958961068831471E-6</v>
+        <v>0.99999430408767154</v>
       </c>
     </row>
   </sheetData>
